--- a/Valuation Framework.xlsx
+++ b/Valuation Framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3456526A-D87D-4572-AA17-566D6B247B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3964CB-43F3-470C-ACF9-C3282ABDFFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="4" xr2:uid="{E998409C-6030-4F13-BFA3-5FA46D863087}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="3" xr2:uid="{E998409C-6030-4F13-BFA3-5FA46D863087}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -16325,8 +16325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA17414-E30A-4536-AA9F-11EE167DC6A6}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:S50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16609,7 +16609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993C3F1-8118-4B95-AA18-F02751F2798D}">
   <dimension ref="A1:AO76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="E4" s="66">
         <f ca="1">+TODAY()</f>
-        <v>45791</v>
+        <v>45858</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -17970,43 +17970,43 @@
       </c>
       <c r="M53">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>125.37222222222222</v>
+        <v>125.55555555555556</v>
       </c>
       <c r="N53">
         <f ca="1">M53+1</f>
-        <v>126.37222222222222</v>
+        <v>126.55555555555556</v>
       </c>
       <c r="O53">
         <f ca="1">N53+1</f>
-        <v>127.37222222222222</v>
+        <v>127.55555555555556</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>128.37222222222221</v>
+        <v>128.55555555555554</v>
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="16"/>
-        <v>129.37222222222221</v>
+        <v>129.55555555555554</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="16"/>
-        <v>130.37222222222221</v>
+        <v>130.55555555555554</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="16"/>
-        <v>131.37222222222221</v>
+        <v>131.55555555555554</v>
       </c>
       <c r="T53">
         <f t="shared" ca="1" si="16"/>
-        <v>132.37222222222221</v>
+        <v>132.55555555555554</v>
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="16"/>
-        <v>133.37222222222221</v>
+        <v>133.55555555555554</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="16"/>
-        <v>134.37222222222221</v>
+        <v>134.55555555555554</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">

--- a/Valuation Framework.xlsx
+++ b/Valuation Framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\MetaModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4903C497-7EC2-4292-B4FE-0D16EC055EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8EF0D6-070C-495A-8AEE-946E9A77D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="4" xr2:uid="{E998409C-6030-4F13-BFA3-5FA46D863087}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="4" xr2:uid="{E998409C-6030-4F13-BFA3-5FA46D863087}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -1119,6 +1119,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,84 +1140,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -16760,7 +16692,7 @@
       </c>
       <c r="E4" s="65">
         <f ca="1">+TODAY()</f>
-        <v>45867</v>
+        <v>45890</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -18038,43 +17970,43 @@
       </c>
       <c r="M53">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>125.58055555555555</v>
+        <v>125.64166666666667</v>
       </c>
       <c r="N53">
         <f ca="1">M53+1</f>
-        <v>126.58055555555555</v>
+        <v>126.64166666666667</v>
       </c>
       <c r="O53">
         <f ca="1">N53+1</f>
-        <v>127.58055555555555</v>
+        <v>127.64166666666667</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>128.58055555555555</v>
+        <v>128.64166666666665</v>
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="16"/>
-        <v>129.58055555555555</v>
+        <v>129.64166666666665</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="16"/>
-        <v>130.58055555555555</v>
+        <v>130.64166666666665</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="16"/>
-        <v>131.58055555555555</v>
+        <v>131.64166666666665</v>
       </c>
       <c r="T53">
         <f t="shared" ca="1" si="16"/>
-        <v>132.58055555555555</v>
+        <v>132.64166666666665</v>
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="16"/>
-        <v>133.58055555555555</v>
+        <v>133.64166666666665</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="16"/>
-        <v>134.58055555555555</v>
+        <v>134.64166666666665</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -18195,7 +18127,7 @@
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
-      <c r="V59" s="72"/>
+      <c r="V59" s="66"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -18233,7 +18165,7 @@
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
-      <c r="V61" s="72"/>
+      <c r="V61" s="66"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -18274,30 +18206,30 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="42"/>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
       <c r="M68" s="42"/>
-      <c r="N68" s="68" t="s">
+      <c r="N68" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="68"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="69"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="70"/>
     </row>
     <row r="69" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="71" t="s">
         <v>31</v>
       </c>
       <c r="C69" s="43" t="e">
@@ -18311,7 +18243,7 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="63"/>
-      <c r="M69" s="70" t="s">
+      <c r="M69" s="71" t="s">
         <v>31</v>
       </c>
       <c r="N69" s="43" t="e">
@@ -18327,7 +18259,7 @@
       <c r="U69" s="63"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="70"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="44"/>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
@@ -18336,7 +18268,7 @@
       <c r="H70" s="45"/>
       <c r="I70" s="45"/>
       <c r="J70" s="45"/>
-      <c r="M70" s="70"/>
+      <c r="M70" s="71"/>
       <c r="N70" s="44"/>
       <c r="O70" s="45"/>
       <c r="P70" s="45"/>
@@ -18347,7 +18279,7 @@
       <c r="U70" s="45"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="70"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="44"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
@@ -18356,7 +18288,7 @@
       <c r="H71" s="45"/>
       <c r="I71" s="45"/>
       <c r="J71" s="45"/>
-      <c r="M71" s="70"/>
+      <c r="M71" s="71"/>
       <c r="N71" s="44"/>
       <c r="O71" s="45"/>
       <c r="P71" s="45"/>
@@ -18367,7 +18299,7 @@
       <c r="U71" s="45"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="70"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="44"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -18376,7 +18308,7 @@
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
       <c r="J72" s="62"/>
-      <c r="M72" s="70"/>
+      <c r="M72" s="71"/>
       <c r="N72" s="44"/>
       <c r="O72" s="62"/>
       <c r="P72" s="62"/>
@@ -18387,7 +18319,7 @@
       <c r="U72" s="62"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="70"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -18396,7 +18328,7 @@
       <c r="H73" s="45"/>
       <c r="I73" s="45"/>
       <c r="J73" s="45"/>
-      <c r="M73" s="70"/>
+      <c r="M73" s="71"/>
       <c r="N73" s="44"/>
       <c r="O73" s="45"/>
       <c r="P73" s="45"/>
@@ -18407,7 +18339,7 @@
       <c r="U73" s="45"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="70"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="44"/>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -18416,7 +18348,7 @@
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
       <c r="J74" s="45"/>
-      <c r="M74" s="70"/>
+      <c r="M74" s="71"/>
       <c r="N74" s="44"/>
       <c r="O74" s="45"/>
       <c r="P74" s="45"/>
@@ -18427,7 +18359,7 @@
       <c r="U74" s="45"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="70"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -18436,7 +18368,7 @@
       <c r="H75" s="45"/>
       <c r="I75" s="45"/>
       <c r="J75" s="45"/>
-      <c r="M75" s="70"/>
+      <c r="M75" s="71"/>
       <c r="N75" s="44"/>
       <c r="O75" s="45"/>
       <c r="P75" s="45"/>
@@ -18447,7 +18379,7 @@
       <c r="U75" s="45"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="71"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="44"/>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -18456,7 +18388,7 @@
       <c r="H76" s="45"/>
       <c r="I76" s="45"/>
       <c r="J76" s="45"/>
-      <c r="M76" s="71"/>
+      <c r="M76" s="72"/>
       <c r="N76" s="44"/>
       <c r="O76" s="45"/>
       <c r="P76" s="45"/>
@@ -18473,19 +18405,19 @@
     <mergeCell ref="B69:B76"/>
     <mergeCell ref="M69:M76"/>
   </mergeCells>
-  <conditionalFormatting sqref="O70:U76">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="D70:J76">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:J76">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="O70:U76">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
